--- a/DokkanKits/51.xlsx
+++ b/DokkanKits/51.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\DokkanKits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC08684-EF2E-472E-AE7B-ED92392A41B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617D67A2-EB72-4394-8038-9448286B18A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="87">
   <si>
     <t>Attribute\Turn</t>
   </si>
@@ -77,15 +77,9 @@
     <t>Exclusivity</t>
   </si>
   <si>
-    <t>Carnival LR</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Super Saiyan Goku</t>
-  </si>
-  <si>
     <t>Class</t>
   </si>
   <si>
@@ -128,15 +122,9 @@
     <t>SA Mult 12</t>
   </si>
   <si>
-    <t>Colossal</t>
-  </si>
-  <si>
     <t>SA Mult 18</t>
   </si>
   <si>
-    <t>Mega-Colossal</t>
-  </si>
-  <si>
     <t>Counter Mod</t>
   </si>
   <si>
@@ -191,9 +179,6 @@
     <t>Link 1</t>
   </si>
   <si>
-    <t>Golden Warrior</t>
-  </si>
-  <si>
     <t>Link 2</t>
   </si>
   <si>
@@ -203,15 +188,9 @@
     <t>Link 3</t>
   </si>
   <si>
-    <t>Super Saiyan</t>
-  </si>
-  <si>
     <t>Link 4</t>
   </si>
   <si>
-    <t>Kamehameha</t>
-  </si>
-  <si>
     <t>Link 5</t>
   </si>
   <si>
@@ -227,9 +206,6 @@
     <t>Link 7</t>
   </si>
   <si>
-    <t>Legendary Power</t>
-  </si>
-  <si>
     <t>Passive Ki</t>
   </si>
   <si>
@@ -300,6 +276,27 @@
   </si>
   <si>
     <t>Link 7 Commonality</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>Bardock</t>
+  </si>
+  <si>
+    <t>Immense</t>
+  </si>
+  <si>
+    <t>The Saiyan Lineage</t>
+  </si>
+  <si>
+    <t>Family Ties</t>
+  </si>
+  <si>
+    <t>Team Bardock</t>
+  </si>
+  <si>
+    <t>Saiyan Pride</t>
   </si>
 </sst>
 </file>
@@ -852,16 +849,6 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="2">
-          <cell r="B2">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>4</v>
-          </cell>
-        </row>
         <row r="6">
           <cell r="B6">
             <v>3.5</v>
@@ -870,6 +857,16 @@
         <row r="7">
           <cell r="B7">
             <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>4.0999999999999996</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>2.7</v>
           </cell>
         </row>
       </sheetData>
@@ -1177,11 +1174,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -1226,36 +1226,36 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1263,39 +1263,39 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1">
-        <v>44774</v>
+        <v>44835</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
-        <v>44774</v>
+        <v>44927</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9">
-        <v>15530</v>
+        <v>9996</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10">
-        <v>9231</v>
+        <v>7513</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>0.75</v>
@@ -1303,15 +1303,15 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1319,129 +1319,183 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>31</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <f>0.7+1.5+0.5*(0.75*0.751+0.25*0.264)</f>
+        <v>2.5146250000000001</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ref="D19:E19" si="0">0.7+1.5+0.5*(0.75*0.751+0.25*0.264)</f>
+        <v>2.5146250000000001</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>2.5146250000000001</v>
+      </c>
+      <c r="F19">
+        <f>1.5+0.5*(0.418)</f>
+        <v>1.7090000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <f>1.5+0.5*(0.75*0.751+0.25*0.264)</f>
+        <v>1.8146249999999999</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20:E20" si="1">1.5+0.5*(0.75*0.751+0.25*0.264)</f>
+        <v>1.8146249999999999</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>1.8146249999999999</v>
+      </c>
+      <c r="F20">
+        <f>1.5+0.5*(0.418)</f>
+        <v>1.7090000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
         <v>33</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <f>0.04</f>
+        <v>0.04</v>
+      </c>
+      <c r="D21">
+        <f>1.25*0.4+0.04</f>
+        <v>0.54</v>
+      </c>
+      <c r="E21">
+        <f>2.5*0.4+0.04</f>
+        <v>1.04</v>
+      </c>
+      <c r="F21">
+        <f>1.2</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
         <v>34</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f>1.25*0.4</f>
+        <v>0.5</v>
+      </c>
+      <c r="E22">
+        <f>2.5*0.4</f>
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
         <v>35</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>1.59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <f>1.25*0.4</f>
+        <v>0.5</v>
+      </c>
+      <c r="D23">
+        <f>1.25*0.4</f>
+        <v>0.5</v>
+      </c>
+      <c r="E23">
+        <f>1.2-E22</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
         <v>36</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>1.59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
         <v>37</v>
       </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <f>[1]Sheet1!$B$2*0.1</f>
-        <v>0.2</v>
-      </c>
-      <c r="D21">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
         <v>38</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <f>([1]Sheet1!$B$3-1)*0.59/[1]Sheet1!$B$3</f>
-        <v>0.4425</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>42</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1450,245 +1504,255 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <f>0.5</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
         <v>43</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
         <v>44</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
         <v>45</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
         <v>46</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
         <v>47</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
         <v>49</v>
       </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
         <v>50</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
         <v>52</v>
       </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>83</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
         <v>54</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>84</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
         <v>56</v>
       </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>58</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>87</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>64</v>
-      </c>
       <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
         <v>2</v>
-      </c>
-      <c r="C48">
-        <v>7</v>
-      </c>
-      <c r="D48">
-        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C49">
+        <f>[1]Sheet1!$B$8*1.2+[1]Sheet1!$B$9</f>
+        <v>7.6199999999999992</v>
+      </c>
+      <c r="D49">
+        <f>[1]Sheet1!$B$8*1.2+[1]Sheet1!$B$9</f>
+        <v>7.6199999999999992</v>
+      </c>
+      <c r="E49">
+        <f>[1]Sheet1!$B$8*1.2+[1]Sheet1!$B$9</f>
+        <v>7.6199999999999992</v>
+      </c>
+      <c r="F49">
         <f>[1]Sheet1!$B$6*1.5+[1]Sheet1!$B$7</f>
         <v>6.25</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -1699,7 +1763,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -1710,47 +1774,56 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C52">
+        <v>0.75</v>
+      </c>
+      <c r="D52">
+        <v>0.75</v>
+      </c>
+      <c r="E52">
+        <v>0.75</v>
+      </c>
+      <c r="F52">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B53">
         <v>3</v>
       </c>
       <c r="C53">
-        <f>1/10*1/3*0.75</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <f>0.5</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -1761,7 +1834,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -1772,7 +1845,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -1783,7 +1856,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -1794,7 +1867,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -1805,57 +1878,71 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B62">
         <v>4</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <f>0.75*0.51+0.25*0.08</f>
+        <v>0.40250000000000002</v>
       </c>
       <c r="D62">
-        <f>1/10*1/3*0.5</f>
-        <v>1.6666666666666666E-2</v>
+        <f t="shared" ref="D62:E62" si="2">0.75*0.51+0.25*0.08</f>
+        <v>0.40250000000000002</v>
       </c>
       <c r="E62">
-        <f>D53*0.5</f>
-        <v>0.375</v>
+        <f t="shared" si="2"/>
+        <v>0.40250000000000002</v>
       </c>
       <c r="F62">
-        <v>0.5</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <f>0.93*0.75+0.25*0.6321</f>
+        <v>0.85552499999999998</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ref="D63:E63" si="3">0.93*0.75+0.25*0.6321</f>
+        <v>0.85552499999999998</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="3"/>
+        <v>0.85552499999999998</v>
+      </c>
+      <c r="F63">
+        <f>0.6321</f>
+        <v>0.6321</v>
       </c>
     </row>
   </sheetData>
